--- a/template.xlsx
+++ b/template.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Table 3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Randomized List" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -71,10 +71,25 @@
     <t xml:space="preserve">Concluding Prayer</t>
   </si>
   <si>
-    <t xml:space="preserve">WT Readers - Randomized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBS Readers – Randomized</t>
+    <t xml:space="preserve">Treasures 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasures 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living as C 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT Conductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBS Conductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WT Readers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBS Readers</t>
   </si>
 </sst>
 </file>
@@ -85,7 +100,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,20 +137,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,18 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCBFDA"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDEDCE6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE69A"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
+        <fgColor rgb="FFDEDCE6"/>
         <bgColor rgb="FFCCBFDA"/>
       </patternFill>
     </fill>
@@ -208,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,12 +246,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,7 +292,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -298,8 +303,8 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6E0B4"/>
-      <rgbColor rgb="FFFFE69A"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -333,7 +338,7 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,84 +945,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="15.47"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -38,37 +38,25 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Chairman</t>
+    <t xml:space="preserve">Slot 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Treasures from G Word</t>
+    <t xml:space="preserve">Slot 2</t>
   </si>
   <si>
-    <t xml:space="preserve">BR</t>
+    <t xml:space="preserve">Slot 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Apply Yourself to the FM</t>
+    <t xml:space="preserve">Slot 4</t>
   </si>
   <si>
-    <t xml:space="preserve">IC</t>
+    <t xml:space="preserve">Slot 5</t>
   </si>
   <si>
-    <t xml:space="preserve">RV</t>
+    <t xml:space="preserve">Slot 6</t>
   </si>
   <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Living as C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT / CBS Conductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT / CBS Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concluding Prayer</t>
+    <t xml:space="preserve">Slot 7</t>
   </si>
 </sst>
 </file>
@@ -189,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +212,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -318,14 +310,14 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="18.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="18.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -427,31 +419,57 @@
         <v>4</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="T2" s="4"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="V2" s="4"/>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="X2" s="4"/>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="3"/>
+      <c r="AC2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AD2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -560,145 +578,145 @@
     </row>
     <row r="6" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="B6" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="U6" s="9"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="9"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="9"/>
       <c r="AD6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="9"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="9"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="9"/>
       <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
+      <c r="AA7" s="9"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="9"/>
       <c r="AD7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="9"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="9"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
+      <c r="AC8" s="9"/>
       <c r="AD8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="U9" s="9"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="W9" s="9"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
+      <c r="AA9" s="9"/>
       <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
+      <c r="AC9" s="9"/>
       <c r="AD9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>1</v>
@@ -737,38 +755,38 @@
       <c r="B11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="9"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="9"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="10"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="9"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="10"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="9"/>
+      <c r="AA11" s="10"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="9"/>
+      <c r="AC11" s="10"/>
       <c r="AD11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -802,7 +820,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -836,7 +854,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -869,39 +887,11 @@
       <c r="AD14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="F4:F11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="P4:P11"/>
-    <mergeCell ref="R4:R11"/>
-    <mergeCell ref="T4:T11"/>
-    <mergeCell ref="V4:V11"/>
-    <mergeCell ref="X4:X11"/>
-    <mergeCell ref="Z4:Z11"/>
-    <mergeCell ref="AB4:AB11"/>
-    <mergeCell ref="AD4:AD11"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="S6:S9"/>
-    <mergeCell ref="U6:U9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="AA6:AA9"/>
-    <mergeCell ref="AC6:AC9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:B12"/>
@@ -932,186 +922,183 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="18.18"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.14453125" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
